--- a/server_version/time_dev1.xlsx
+++ b/server_version/time_dev1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>L</t>
   </si>
@@ -31,6 +31,9 @@
     <t>t</t>
   </si>
   <si>
+    <t>contbound</t>
+  </si>
+  <si>
     <t>fitness</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>precision</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
     <t>len frequent</t>
   </si>
   <si>
@@ -61,22 +67,19 @@
     <t>number of activities</t>
   </si>
   <si>
+    <t>activities</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>activities</t>
-  </si>
-  <si>
-    <t>contbound</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>ER Registration Leucocytes Release E Release B ER Triage Admission NC IV Liquid Release A Release D LacticAcid Admission IC CRP Return ER IV Antibiotics ER Sepsis Triage Release C</t>
+    <t>ER Registration Release A IV Liquid IV Antibiotics ER Triage Return ER Release B Release C Release E Admission NC Release D CRP LacticAcid Leucocytes ER Sepsis Triage Admission IC</t>
   </si>
 </sst>
 </file>
@@ -408,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +475,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,7 +493,7 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -496,40 +502,43 @@
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.164739833380401</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
+        <v>0.2828783367050818</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>7758</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>7226</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>745</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>16</v>
       </c>
-      <c r="P2">
-        <v>183.4846546649933</v>
-      </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>141.533534526825</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -543,7 +552,7 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -552,37 +561,40 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.164739833380401</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
+        <v>0.2828783367050818</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>7758</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>7226</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>745</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>16</v>
       </c>
-      <c r="P3">
-        <v>149.3596153259277</v>
-      </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>147.7189984321594</v>
       </c>
     </row>
   </sheetData>
